--- a/test_files/concentration_stats.xlsx
+++ b/test_files/concentration_stats.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Users\Thomas\test-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simsong/gits/drb_rounder/python/tests/work/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21460" windowHeight="12380" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="concentration_stats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -439,20 +447,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="B2:E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -486,7 +492,7 @@
         <v>5.6500000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -503,7 +509,7 @@
         <v>5.8410000000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -520,7 +526,7 @@
         <v>5.1350000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -537,7 +543,7 @@
         <v>5.9550000000000006E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -554,7 +560,7 @@
         <v>5.5160000000000008E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -571,7 +577,7 @@
         <v>6.6420000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -588,7 +594,7 @@
         <v>8.8180000000000008E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -605,7 +611,7 @@
         <v>0.10780000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -622,7 +628,7 @@
         <v>0.1789</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -639,7 +645,7 @@
         <v>0.2777</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>5</v>
       </c>
